--- a/public/01.xlsx
+++ b/public/01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="21480" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="工作表1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t xml:space="preserve">受注報告　</t>
   </si>
@@ -22,6 +22,9 @@
     <t>NO.</t>
   </si>
   <si>
+    <t>22-001</t>
+  </si>
+  <si>
     <t>入札</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
     <t>契約公司</t>
   </si>
   <si>
-    <t>OKM</t>
-  </si>
-  <si>
     <t>地名</t>
   </si>
   <si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>坪単価</t>
-  </si>
-  <si>
-    <t>新店</t>
   </si>
   <si>
     <t>工期</t>
@@ -2276,28 +2273,28 @@
   <dimension ref="A1:AR55"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="AW9" sqref="AW9"/>
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="2.125" customWidth="1"/>
-    <col min="8" max="8" width="2.75" customWidth="1"/>
-    <col min="9" max="11" width="2.125" customWidth="1"/>
-    <col min="12" max="12" width="2.625" customWidth="1"/>
-    <col min="13" max="14" width="2.125" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="21" width="2.125" customWidth="1"/>
-    <col min="22" max="22" width="2.75" customWidth="1"/>
-    <col min="23" max="29" width="2.125" customWidth="1"/>
-    <col min="30" max="30" width="3.375" customWidth="1"/>
-    <col min="31" max="41" width="2.125" customWidth="1"/>
-    <col min="42" max="42" width="2.875" customWidth="1"/>
-    <col min="43" max="43" width="2.625" customWidth="1"/>
-    <col min="44" max="44" width="3.625" customWidth="1"/>
+    <col min="1" max="7" width="2.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="11" width="2.140625" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
+    <col min="13" max="14" width="2.140625" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
+    <col min="16" max="21" width="2.140625" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" customWidth="1"/>
+    <col min="23" max="29" width="2.140625" customWidth="1"/>
+    <col min="30" max="30" width="3.42578125" customWidth="1"/>
+    <col min="31" max="41" width="2.140625" customWidth="1"/>
+    <col min="42" max="42" width="2.85546875" customWidth="1"/>
+    <col min="43" max="43" width="2.5703125" customWidth="1"/>
+    <col min="44" max="44" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2360,28 +2357,27 @@
         <v>1</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="5" t="str">
-        <f>[1]受注リスト!B4</f>
-        <v>22-001</v>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="6"/>
       <c r="V2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -2391,23 +2387,23 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -2458,7 +2454,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2466,8 +2462,8 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
-        <v>10</v>
+      <c r="H4" s="14">
+        <v>3887300</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2561,9 +2557,7 @@
         <v>15</v>
       </c>
       <c r="AE5" s="26"/>
-      <c r="AF5" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="AF5" s="32"/>
       <c r="AG5" s="33"/>
       <c r="AH5" s="33"/>
       <c r="AI5" s="33"/>
@@ -2579,7 +2573,7 @@
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2598,7 +2592,7 @@
       <c r="P6" s="36"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
@@ -2608,7 +2602,7 @@
       <c r="X6" s="41"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
@@ -2616,7 +2610,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
@@ -2633,7 +2627,7 @@
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -2652,7 +2646,7 @@
       <c r="P7" s="36"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
@@ -2674,7 +2668,7 @@
       <c r="AJ7" s="45"/>
       <c r="AK7" s="46"/>
       <c r="AL7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM7" s="47"/>
       <c r="AN7" s="47"/>
@@ -2685,7 +2679,7 @@
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2694,10 +2688,10 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2705,10 +2699,10 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -2717,7 +2711,7 @@
       <c r="U8" s="36"/>
       <c r="V8" s="49"/>
       <c r="W8" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -2725,11 +2719,11 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="50"/>
       <c r="AC8" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -2738,7 +2732,7 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="50"/>
       <c r="AL8" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
@@ -2747,7 +2741,7 @@
       <c r="AQ8" s="13"/>
       <c r="AR8" s="35"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -2793,7 +2787,7 @@
       <c r="AQ9" s="59"/>
       <c r="AR9" s="60"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -2839,7 +2833,7 @@
       <c r="AQ10" s="72"/>
       <c r="AR10" s="73"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -2885,7 +2879,7 @@
       <c r="AQ11" s="82"/>
       <c r="AR11" s="83"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
@@ -2931,7 +2925,7 @@
       <c r="AQ12" s="72"/>
       <c r="AR12" s="73"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -2977,7 +2971,7 @@
       <c r="AQ13" s="72"/>
       <c r="AR13" s="73"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -3023,7 +3017,7 @@
       <c r="AQ14" s="72"/>
       <c r="AR14" s="73"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -3069,7 +3063,7 @@
       <c r="AQ15" s="72"/>
       <c r="AR15" s="73"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -3115,7 +3109,7 @@
       <c r="AQ16" s="72"/>
       <c r="AR16" s="73"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -3161,7 +3155,7 @@
       <c r="AQ17" s="72"/>
       <c r="AR17" s="73"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -3207,7 +3201,7 @@
       <c r="AQ18" s="72"/>
       <c r="AR18" s="73"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -3253,7 +3247,7 @@
       <c r="AQ19" s="72"/>
       <c r="AR19" s="73"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="74"/>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
@@ -3299,7 +3293,7 @@
       <c r="AQ20" s="72"/>
       <c r="AR20" s="73"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -3345,7 +3339,7 @@
       <c r="AQ21" s="72"/>
       <c r="AR21" s="73"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -3391,7 +3385,7 @@
       <c r="AQ22" s="72"/>
       <c r="AR22" s="73"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="74"/>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
@@ -3437,7 +3431,7 @@
       <c r="AQ23" s="72"/>
       <c r="AR23" s="73"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="74"/>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
@@ -3483,7 +3477,7 @@
       <c r="AQ24" s="72"/>
       <c r="AR24" s="73"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="74"/>
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
@@ -3529,7 +3523,7 @@
       <c r="AQ25" s="72"/>
       <c r="AR25" s="73"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="74"/>
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
@@ -3575,7 +3569,7 @@
       <c r="AQ26" s="72"/>
       <c r="AR26" s="73"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="74"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3621,7 +3615,7 @@
       <c r="AQ27" s="72"/>
       <c r="AR27" s="73"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="74"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -3667,7 +3661,7 @@
       <c r="AQ28" s="72"/>
       <c r="AR28" s="73"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
@@ -3713,7 +3707,7 @@
       <c r="AQ29" s="72"/>
       <c r="AR29" s="73"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
@@ -3759,7 +3753,7 @@
       <c r="AQ30" s="72"/>
       <c r="AR30" s="73"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="74"/>
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
@@ -3853,7 +3847,7 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
@@ -3905,7 +3899,7 @@
       <c r="AQ33" s="128"/>
       <c r="AR33" s="129"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3928,7 +3922,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
@@ -3937,11 +3931,11 @@
       <c r="AA34" s="18"/>
       <c r="AB34" s="131"/>
       <c r="AC34" s="132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD34" s="132"/>
       <c r="AE34" s="130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
@@ -3959,7 +3953,7 @@
       <c r="AQ34" s="18"/>
       <c r="AR34" s="26"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="133"/>
       <c r="B35" s="134"/>
       <c r="C35" s="134"/>
@@ -3991,15 +3985,9 @@
       <c r="Z35" s="134"/>
       <c r="AA35" s="134"/>
       <c r="AB35" s="136"/>
-      <c r="AC35" s="138" t="e">
-        <f>V35/AL35</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AC35" s="138"/>
       <c r="AD35" s="139"/>
-      <c r="AE35" s="135" t="e">
-        <f>AL35*(100%-AC35)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AE35" s="135"/>
       <c r="AF35" s="137"/>
       <c r="AG35" s="137"/>
       <c r="AH35" s="137"/>
@@ -4017,7 +4005,7 @@
       <c r="AQ35" s="137"/>
       <c r="AR35" s="141"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="142"/>
       <c r="B36" s="143"/>
       <c r="C36" s="143"/>
@@ -4063,7 +4051,7 @@
       <c r="AQ36" s="143"/>
       <c r="AR36" s="149"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="142"/>
       <c r="B37" s="143"/>
       <c r="C37" s="143"/>
@@ -4187,7 +4175,7 @@
       <c r="AC39" s="153"/>
       <c r="AD39" s="153"/>
       <c r="AE39" s="154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF39" s="155"/>
       <c r="AG39" s="155"/>
@@ -4208,7 +4196,7 @@
     </row>
     <row r="40" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="158"/>
       <c r="C40" s="158"/>
@@ -4231,7 +4219,7 @@
       <c r="T40" s="158"/>
       <c r="U40" s="158"/>
       <c r="V40" s="158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W40" s="158"/>
       <c r="X40" s="158"/>
@@ -4242,7 +4230,7 @@
       <c r="AC40" s="119"/>
       <c r="AD40" s="160"/>
       <c r="AE40" s="154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF40" s="154"/>
       <c r="AG40" s="154"/>
@@ -4254,15 +4242,15 @@
       <c r="AM40" s="36"/>
       <c r="AN40" s="36"/>
       <c r="AO40" s="36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP40" s="36"/>
       <c r="AQ40" s="36"/>
       <c r="AR40" s="43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="109"/>
       <c r="B41" s="115"/>
       <c r="C41" s="110"/>
@@ -4354,9 +4342,9 @@
       <c r="AQ42" s="143"/>
       <c r="AR42" s="149"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -4450,7 +4438,7 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4491,7 +4479,7 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
@@ -4500,7 +4488,7 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -4511,49 +4499,49 @@
       <c r="F46" s="13"/>
       <c r="G46" s="50"/>
       <c r="H46" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="50"/>
       <c r="W46" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="50"/>
       <c r="AG46" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
       <c r="AL46" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AM46" s="36"/>
       <c r="AN46" s="36"/>
@@ -4564,7 +4552,7 @@
       <c r="AQ46" s="13"/>
       <c r="AR46" s="35"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
       <c r="B47" s="161"/>
       <c r="C47" s="161"/>
@@ -4609,7 +4597,7 @@
       <c r="AP47" s="175"/>
       <c r="AQ47" s="176"/>
       <c r="AR47" s="177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -4657,12 +4645,12 @@
       <c r="AP48" s="184"/>
       <c r="AQ48" s="185"/>
       <c r="AR48" s="186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4754,7 +4742,7 @@
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="187"/>
       <c r="B51" s="188"/>
       <c r="C51" s="188"/>
@@ -4780,35 +4768,35 @@
       <c r="W51" s="189"/>
       <c r="X51" s="190"/>
       <c r="Y51" s="191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z51" s="192"/>
       <c r="AA51" s="192"/>
       <c r="AB51" s="192"/>
       <c r="AC51" s="193"/>
       <c r="AD51" s="194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE51" s="192"/>
       <c r="AF51" s="192"/>
       <c r="AG51" s="192"/>
       <c r="AH51" s="193"/>
       <c r="AI51" s="194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ51" s="158"/>
       <c r="AK51" s="158"/>
       <c r="AL51" s="158"/>
       <c r="AM51" s="195"/>
       <c r="AN51" s="194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AO51" s="192"/>
       <c r="AP51" s="192"/>
       <c r="AQ51" s="192"/>
       <c r="AR51" s="196"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="187"/>
       <c r="B52" s="188"/>
       <c r="C52" s="188"/>
@@ -4854,7 +4842,7 @@
       <c r="AQ52" s="198"/>
       <c r="AR52" s="201"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="187"/>
       <c r="B53" s="188"/>
       <c r="C53" s="188"/>
@@ -4900,7 +4888,7 @@
       <c r="AQ53" s="188"/>
       <c r="AR53" s="189"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="187"/>
       <c r="B54" s="188"/>
       <c r="C54" s="188"/>
@@ -5310,5 +5298,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/01.xlsx
+++ b/public/01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t xml:space="preserve">受注報告　</t>
   </si>
@@ -22,9 +22,6 @@
     <t>NO.</t>
   </si>
   <si>
-    <t>22-001</t>
-  </si>
-  <si>
     <t>入札</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>契約公司</t>
   </si>
   <si>
+    <t>復華</t>
+  </si>
+  <si>
     <t>地名</t>
   </si>
   <si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>坪単価</t>
+  </si>
+  <si>
+    <t>新店</t>
   </si>
   <si>
     <t>工期</t>
@@ -2273,28 +2276,28 @@
   <dimension ref="A1:AR55"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="AS12" sqref="AS12"/>
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="2.140625" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="11" width="2.140625" customWidth="1"/>
-    <col min="12" max="12" width="2.5703125" customWidth="1"/>
-    <col min="13" max="14" width="2.140625" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" customWidth="1"/>
-    <col min="16" max="21" width="2.140625" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" customWidth="1"/>
-    <col min="23" max="29" width="2.140625" customWidth="1"/>
-    <col min="30" max="30" width="3.42578125" customWidth="1"/>
-    <col min="31" max="41" width="2.140625" customWidth="1"/>
-    <col min="42" max="42" width="2.85546875" customWidth="1"/>
-    <col min="43" max="43" width="2.5703125" customWidth="1"/>
-    <col min="44" max="44" width="3.5703125" customWidth="1"/>
+    <col min="1" max="7" width="2.125" customWidth="1"/>
+    <col min="8" max="8" width="2.75" customWidth="1"/>
+    <col min="9" max="11" width="2.125" customWidth="1"/>
+    <col min="12" max="12" width="2.625" customWidth="1"/>
+    <col min="13" max="14" width="2.125" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="16" max="21" width="2.125" customWidth="1"/>
+    <col min="22" max="22" width="2.75" customWidth="1"/>
+    <col min="23" max="29" width="2.125" customWidth="1"/>
+    <col min="30" max="30" width="3.375" customWidth="1"/>
+    <col min="31" max="41" width="2.125" customWidth="1"/>
+    <col min="42" max="42" width="2.875" customWidth="1"/>
+    <col min="43" max="43" width="2.625" customWidth="1"/>
+    <col min="44" max="44" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,27 +2360,28 @@
         <v>1</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
-        <v>2</v>
+      <c r="M2" s="5" t="str">
+        <f>[1]受注リスト!B4</f>
+        <v>22-001</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="6"/>
       <c r="V2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -2387,23 +2391,23 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -2454,7 +2458,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2462,8 +2466,8 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="14">
-        <v>3887300</v>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2518,10 +2522,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="23">
-        <f>I33</f>
-        <v>0</v>
-      </c>
+      <c r="H5" s="23"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -2557,7 +2558,9 @@
         <v>15</v>
       </c>
       <c r="AE5" s="26"/>
-      <c r="AF5" s="32"/>
+      <c r="AF5" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="AG5" s="33"/>
       <c r="AH5" s="33"/>
       <c r="AI5" s="33"/>
@@ -2573,7 +2576,7 @@
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2592,7 +2595,7 @@
       <c r="P6" s="36"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
@@ -2602,7 +2605,7 @@
       <c r="X6" s="41"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
@@ -2610,7 +2613,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
@@ -2627,7 +2630,7 @@
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -2646,7 +2649,7 @@
       <c r="P7" s="36"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
@@ -2668,7 +2671,7 @@
       <c r="AJ7" s="45"/>
       <c r="AK7" s="46"/>
       <c r="AL7" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM7" s="47"/>
       <c r="AN7" s="47"/>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2688,10 +2691,10 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2699,10 +2702,10 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -2711,7 +2714,7 @@
       <c r="U8" s="36"/>
       <c r="V8" s="49"/>
       <c r="W8" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -2719,11 +2722,11 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="50"/>
       <c r="AC8" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -2732,7 +2735,7 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="50"/>
       <c r="AL8" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
@@ -2741,7 +2744,7 @@
       <c r="AQ8" s="13"/>
       <c r="AR8" s="35"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -2787,7 +2790,7 @@
       <c r="AQ9" s="59"/>
       <c r="AR9" s="60"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -2833,7 +2836,7 @@
       <c r="AQ10" s="72"/>
       <c r="AR10" s="73"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -2879,7 +2882,7 @@
       <c r="AQ11" s="82"/>
       <c r="AR11" s="83"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
@@ -2925,7 +2928,7 @@
       <c r="AQ12" s="72"/>
       <c r="AR12" s="73"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -2971,7 +2974,7 @@
       <c r="AQ13" s="72"/>
       <c r="AR13" s="73"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -3017,7 +3020,7 @@
       <c r="AQ14" s="72"/>
       <c r="AR14" s="73"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -3063,7 +3066,7 @@
       <c r="AQ15" s="72"/>
       <c r="AR15" s="73"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -3109,7 +3112,7 @@
       <c r="AQ16" s="72"/>
       <c r="AR16" s="73"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -3155,7 +3158,7 @@
       <c r="AQ17" s="72"/>
       <c r="AR17" s="73"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -3201,7 +3204,7 @@
       <c r="AQ18" s="72"/>
       <c r="AR18" s="73"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -3247,7 +3250,7 @@
       <c r="AQ19" s="72"/>
       <c r="AR19" s="73"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="74"/>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
@@ -3293,7 +3296,7 @@
       <c r="AQ20" s="72"/>
       <c r="AR20" s="73"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -3339,7 +3342,7 @@
       <c r="AQ21" s="72"/>
       <c r="AR21" s="73"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -3385,7 +3388,7 @@
       <c r="AQ22" s="72"/>
       <c r="AR22" s="73"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="74"/>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
@@ -3431,7 +3434,7 @@
       <c r="AQ23" s="72"/>
       <c r="AR23" s="73"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="74"/>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
@@ -3477,7 +3480,7 @@
       <c r="AQ24" s="72"/>
       <c r="AR24" s="73"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="74"/>
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
@@ -3523,7 +3526,7 @@
       <c r="AQ25" s="72"/>
       <c r="AR25" s="73"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="74"/>
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
@@ -3569,7 +3572,7 @@
       <c r="AQ26" s="72"/>
       <c r="AR26" s="73"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="74"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3615,7 +3618,7 @@
       <c r="AQ27" s="72"/>
       <c r="AR27" s="73"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="74"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -3661,7 +3664,7 @@
       <c r="AQ28" s="72"/>
       <c r="AR28" s="73"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
@@ -3707,7 +3710,7 @@
       <c r="AQ29" s="72"/>
       <c r="AR29" s="73"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
@@ -3753,7 +3756,7 @@
       <c r="AQ30" s="72"/>
       <c r="AR30" s="73"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="74"/>
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
@@ -3881,10 +3884,7 @@
       <c r="AB33" s="122"/>
       <c r="AC33" s="123"/>
       <c r="AD33" s="123"/>
-      <c r="AE33" s="124">
-        <f>SUM(AE10:AE32)</f>
-        <v>0</v>
-      </c>
+      <c r="AE33" s="124"/>
       <c r="AF33" s="125"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="125"/>
@@ -3899,7 +3899,7 @@
       <c r="AQ33" s="128"/>
       <c r="AR33" s="129"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3922,7 +3922,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
@@ -3931,11 +3931,11 @@
       <c r="AA34" s="18"/>
       <c r="AB34" s="131"/>
       <c r="AC34" s="132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD34" s="132"/>
       <c r="AE34" s="130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
@@ -3953,7 +3953,7 @@
       <c r="AQ34" s="18"/>
       <c r="AR34" s="26"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="133"/>
       <c r="B35" s="134"/>
       <c r="C35" s="134"/>
@@ -3975,10 +3975,7 @@
       <c r="S35" s="137"/>
       <c r="T35" s="137"/>
       <c r="U35" s="137"/>
-      <c r="V35" s="135">
-        <f>AE33</f>
-        <v>0</v>
-      </c>
+      <c r="V35" s="135"/>
       <c r="W35" s="134"/>
       <c r="X35" s="134"/>
       <c r="Y35" s="134"/>
@@ -3994,10 +3991,7 @@
       <c r="AI35" s="137"/>
       <c r="AJ35" s="137"/>
       <c r="AK35" s="140"/>
-      <c r="AL35" s="135">
-        <f>H5</f>
-        <v>0</v>
-      </c>
+      <c r="AL35" s="135"/>
       <c r="AM35" s="137"/>
       <c r="AN35" s="137"/>
       <c r="AO35" s="137"/>
@@ -4005,7 +3999,7 @@
       <c r="AQ35" s="137"/>
       <c r="AR35" s="141"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="142"/>
       <c r="B36" s="143"/>
       <c r="C36" s="143"/>
@@ -4051,7 +4045,7 @@
       <c r="AQ36" s="143"/>
       <c r="AR36" s="149"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="142"/>
       <c r="B37" s="143"/>
       <c r="C37" s="143"/>
@@ -4175,7 +4169,7 @@
       <c r="AC39" s="153"/>
       <c r="AD39" s="153"/>
       <c r="AE39" s="154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF39" s="155"/>
       <c r="AG39" s="155"/>
@@ -4196,7 +4190,7 @@
     </row>
     <row r="40" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="158"/>
       <c r="C40" s="158"/>
@@ -4219,7 +4213,7 @@
       <c r="T40" s="158"/>
       <c r="U40" s="158"/>
       <c r="V40" s="158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W40" s="158"/>
       <c r="X40" s="158"/>
@@ -4230,7 +4224,7 @@
       <c r="AC40" s="119"/>
       <c r="AD40" s="160"/>
       <c r="AE40" s="154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF40" s="154"/>
       <c r="AG40" s="154"/>
@@ -4242,15 +4236,15 @@
       <c r="AM40" s="36"/>
       <c r="AN40" s="36"/>
       <c r="AO40" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP40" s="36"/>
       <c r="AQ40" s="36"/>
       <c r="AR40" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="109"/>
       <c r="B41" s="115"/>
       <c r="C41" s="110"/>
@@ -4342,9 +4336,9 @@
       <c r="AQ42" s="143"/>
       <c r="AR42" s="149"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -4438,7 +4432,7 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4479,7 +4473,7 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
@@ -4488,7 +4482,7 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -4499,49 +4493,49 @@
       <c r="F46" s="13"/>
       <c r="G46" s="50"/>
       <c r="H46" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="50"/>
       <c r="W46" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="50"/>
       <c r="AG46" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
       <c r="AL46" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AM46" s="36"/>
       <c r="AN46" s="36"/>
@@ -4552,7 +4546,7 @@
       <c r="AQ46" s="13"/>
       <c r="AR46" s="35"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
       <c r="B47" s="161"/>
       <c r="C47" s="161"/>
@@ -4597,7 +4591,7 @@
       <c r="AP47" s="175"/>
       <c r="AQ47" s="176"/>
       <c r="AR47" s="177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -4645,12 +4639,12 @@
       <c r="AP48" s="184"/>
       <c r="AQ48" s="185"/>
       <c r="AR48" s="186" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4742,7 +4736,7 @@
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="187"/>
       <c r="B51" s="188"/>
       <c r="C51" s="188"/>
@@ -4768,35 +4762,35 @@
       <c r="W51" s="189"/>
       <c r="X51" s="190"/>
       <c r="Y51" s="191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z51" s="192"/>
       <c r="AA51" s="192"/>
       <c r="AB51" s="192"/>
       <c r="AC51" s="193"/>
       <c r="AD51" s="194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE51" s="192"/>
       <c r="AF51" s="192"/>
       <c r="AG51" s="192"/>
       <c r="AH51" s="193"/>
       <c r="AI51" s="194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ51" s="158"/>
       <c r="AK51" s="158"/>
       <c r="AL51" s="158"/>
       <c r="AM51" s="195"/>
       <c r="AN51" s="194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO51" s="192"/>
       <c r="AP51" s="192"/>
       <c r="AQ51" s="192"/>
       <c r="AR51" s="196"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="187"/>
       <c r="B52" s="188"/>
       <c r="C52" s="188"/>
@@ -4842,7 +4836,7 @@
       <c r="AQ52" s="198"/>
       <c r="AR52" s="201"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="187"/>
       <c r="B53" s="188"/>
       <c r="C53" s="188"/>
@@ -4888,7 +4882,7 @@
       <c r="AQ53" s="188"/>
       <c r="AR53" s="189"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="187"/>
       <c r="B54" s="188"/>
       <c r="C54" s="188"/>
@@ -5298,6 +5292,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/01.xlsx
+++ b/public/01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t xml:space="preserve">受注報告　</t>
   </si>
@@ -22,6 +22,9 @@
     <t>NO.</t>
   </si>
   <si>
+    <t>22-001</t>
+  </si>
+  <si>
     <t>入札</t>
   </si>
   <si>
@@ -46,21 +49,33 @@
     <t>契約公司</t>
   </si>
   <si>
-    <t>復華</t>
+    <t>富台機械開發建設有限公司</t>
   </si>
   <si>
     <t>地名</t>
   </si>
   <si>
+    <t>南投縣</t>
+  </si>
+  <si>
     <t>工事名</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>担当者</t>
   </si>
   <si>
+    <t>["B20000員工","E50000新人"]</t>
+  </si>
+  <si>
     <t>契約金額</t>
   </si>
   <si>
+    <t>6000000</t>
+  </si>
+  <si>
     <t>NTD</t>
   </si>
   <si>
@@ -71,6 +86,9 @@
   </si>
   <si>
     <t>坪単価</t>
+  </si>
+  <si>
+    <t>2000000</t>
   </si>
   <si>
     <t>新店</t>
@@ -2360,28 +2378,27 @@
         <v>1</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="5" t="str">
-        <f>[1]受注リスト!B4</f>
-        <v>22-001</v>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="6"/>
       <c r="V2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -2391,23 +2408,23 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -2458,7 +2475,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2467,7 +2484,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2476,35 +2493,41 @@
       <c r="M4" s="15"/>
       <c r="N4" s="16"/>
       <c r="O4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="R4" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="16"/>
       <c r="V4" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
-      <c r="Z4" s="14"/>
+      <c r="Z4" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG4" s="18"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
-      <c r="AL4" s="19"/>
+      <c r="AL4" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="AM4" s="20"/>
       <c r="AN4" s="20"/>
       <c r="AO4" s="20"/>
@@ -2514,7 +2537,7 @@
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2522,44 +2545,48 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N5" s="26"/>
       <c r="O5" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="27"/>
+      <c r="R5" s="27">
+        <v>200</v>
+      </c>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
-      <c r="Z5" s="23">
-        <f>IF(H5&gt;0,H5/R5,"")</f>
+      <c r="Z5" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="31"/>
       <c r="AD5" s="25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="33"/>
       <c r="AH5" s="33"/>
@@ -2576,7 +2603,7 @@
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2595,17 +2622,19 @@
       <c r="P6" s="36"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="38" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
       <c r="U6" s="39"/>
-      <c r="V6" s="40"/>
+      <c r="V6" s="40">
+        <v>44813.66666666667</v>
+      </c>
       <c r="W6" s="41"/>
       <c r="X6" s="41"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
@@ -2613,7 +2642,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
@@ -2630,7 +2659,7 @@
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -2649,7 +2678,7 @@
       <c r="P7" s="36"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
@@ -2671,7 +2700,7 @@
       <c r="AJ7" s="45"/>
       <c r="AK7" s="46"/>
       <c r="AL7" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM7" s="47"/>
       <c r="AN7" s="47"/>
@@ -2682,7 +2711,7 @@
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2691,10 +2720,10 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2702,10 +2731,10 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -2714,7 +2743,7 @@
       <c r="U8" s="36"/>
       <c r="V8" s="49"/>
       <c r="W8" s="36" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -2722,11 +2751,11 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="50"/>
       <c r="AC8" s="36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -2735,7 +2764,7 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="50"/>
       <c r="AL8" s="36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
@@ -3850,7 +3879,7 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="109" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
@@ -3922,7 +3951,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="130" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
@@ -3931,11 +3960,11 @@
       <c r="AA34" s="18"/>
       <c r="AB34" s="131"/>
       <c r="AC34" s="132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AD34" s="132"/>
       <c r="AE34" s="130" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
@@ -3944,7 +3973,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="131"/>
       <c r="AL34" s="17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AM34" s="18"/>
       <c r="AN34" s="18"/>
@@ -4169,7 +4198,7 @@
       <c r="AC39" s="153"/>
       <c r="AD39" s="153"/>
       <c r="AE39" s="154" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF39" s="155"/>
       <c r="AG39" s="155"/>
@@ -4190,7 +4219,7 @@
     </row>
     <row r="40" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="157" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B40" s="158"/>
       <c r="C40" s="158"/>
@@ -4213,7 +4242,7 @@
       <c r="T40" s="158"/>
       <c r="U40" s="158"/>
       <c r="V40" s="158" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W40" s="158"/>
       <c r="X40" s="158"/>
@@ -4224,7 +4253,7 @@
       <c r="AC40" s="119"/>
       <c r="AD40" s="160"/>
       <c r="AE40" s="154" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AF40" s="154"/>
       <c r="AG40" s="154"/>
@@ -4236,12 +4265,12 @@
       <c r="AM40" s="36"/>
       <c r="AN40" s="36"/>
       <c r="AO40" s="36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP40" s="36"/>
       <c r="AQ40" s="36"/>
       <c r="AR40" s="43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -4338,7 +4367,7 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -4432,7 +4461,7 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4473,7 +4502,7 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="168" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
@@ -4482,66 +4511,66 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="50"/>
       <c r="H46" s="36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="51" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="51" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="50"/>
       <c r="W46" s="36" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="51" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="50"/>
       <c r="AG46" s="36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
       <c r="AL46" s="51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AM46" s="36"/>
       <c r="AN46" s="36"/>
       <c r="AO46" s="37"/>
       <c r="AP46" s="51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ46" s="13"/>
       <c r="AR46" s="35"/>
@@ -4591,7 +4620,7 @@
       <c r="AP47" s="175"/>
       <c r="AQ47" s="176"/>
       <c r="AR47" s="177" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -4639,12 +4668,12 @@
       <c r="AP48" s="184"/>
       <c r="AQ48" s="185"/>
       <c r="AR48" s="186" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4762,28 +4791,28 @@
       <c r="W51" s="189"/>
       <c r="X51" s="190"/>
       <c r="Y51" s="191" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Z51" s="192"/>
       <c r="AA51" s="192"/>
       <c r="AB51" s="192"/>
       <c r="AC51" s="193"/>
       <c r="AD51" s="194" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AE51" s="192"/>
       <c r="AF51" s="192"/>
       <c r="AG51" s="192"/>
       <c r="AH51" s="193"/>
       <c r="AI51" s="194" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AJ51" s="158"/>
       <c r="AK51" s="158"/>
       <c r="AL51" s="158"/>
       <c r="AM51" s="195"/>
       <c r="AN51" s="194" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AO51" s="192"/>
       <c r="AP51" s="192"/>

--- a/public/01.xlsx
+++ b/public/01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t xml:space="preserve">受注報告　</t>
   </si>
@@ -22,7 +22,7 @@
     <t>NO.</t>
   </si>
   <si>
-    <t>22-001</t>
+    <t>22-005</t>
   </si>
   <si>
     <t>入札</t>
@@ -37,12 +37,21 @@
     <t>作成日</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>年</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
     <t>月</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>日</t>
   </si>
   <si>
@@ -61,19 +70,19 @@
     <t>工事名</t>
   </si>
   <si>
-    <t>test</t>
+    <t>サイバーパンクエッジランナーズ</t>
   </si>
   <si>
     <t>担当者</t>
   </si>
   <si>
-    <t>["B20000員工","E50000新人"]</t>
+    <t xml:space="preserve">B20000員工 C30000外人 O95485章魚燒 </t>
   </si>
   <si>
     <t>契約金額</t>
   </si>
   <si>
-    <t>6000000</t>
+    <t>80,000,000</t>
   </si>
   <si>
     <t>NTD</t>
@@ -82,13 +91,16 @@
     <t>坪数</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
     <t>坪単価</t>
   </si>
   <si>
-    <t>2000000</t>
+    <t>20,777</t>
   </si>
   <si>
     <t>新店</t>
@@ -97,9 +109,15 @@
     <t>工期</t>
   </si>
   <si>
+    <t>2022.09.08~09.08</t>
+  </si>
+  <si>
     <t>開幕日</t>
   </si>
   <si>
+    <t>2022.09.10</t>
+  </si>
+  <si>
     <t>協力業者</t>
   </si>
   <si>
@@ -130,9 +148,96 @@
     <t>支払金額</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>大道汽車</t>
+  </si>
+  <si>
+    <t>6,000,000</t>
+  </si>
+  <si>
+    <t>車窗</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>-100,000</t>
+  </si>
+  <si>
+    <t>九州</t>
+  </si>
+  <si>
+    <t>8,800,000</t>
+  </si>
+  <si>
+    <t>水泥</t>
+  </si>
+  <si>
+    <t>-550,000</t>
+  </si>
+  <si>
+    <t>福興園</t>
+  </si>
+  <si>
+    <t>1,110,000</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>-110,000</t>
+  </si>
+  <si>
+    <t>一成</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>三合</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>1592700</t>
+  </si>
+  <si>
+    <t>八達</t>
+  </si>
+  <si>
+    <t>470000</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>大基報關</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>上海煤氣</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
     <t>合計金額</t>
   </si>
   <si>
+    <t>15,150,000</t>
+  </si>
+  <si>
     <t>総原価合計</t>
   </si>
   <si>
@@ -140,6 +245,12 @@
   </si>
   <si>
     <t>粗利額</t>
+  </si>
+  <si>
+    <t>18.94%</t>
+  </si>
+  <si>
+    <t>64,850,000</t>
   </si>
   <si>
     <t>決定契約金額</t>
@@ -2411,20 +2522,26 @@
         <v>6</v>
       </c>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="8"/>
+      <c r="AJ2" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="AK2" s="8"/>
       <c r="AL2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM2" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP2" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -2475,7 +2592,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2484,7 +2601,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2493,24 +2610,24 @@
       <c r="M4" s="15"/>
       <c r="N4" s="16"/>
       <c r="O4" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="16"/>
       <c r="V4" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
@@ -2518,7 +2635,7 @@
       <c r="AD4" s="15"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG4" s="18"/>
       <c r="AH4" s="18"/>
@@ -2526,7 +2643,7 @@
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM4" s="20"/>
       <c r="AN4" s="20"/>
@@ -2537,7 +2654,7 @@
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2546,47 +2663,47 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N5" s="26"/>
       <c r="O5" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="27">
-        <v>200</v>
+      <c r="R5" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="31"/>
       <c r="AD5" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG5" s="33"/>
       <c r="AH5" s="33"/>
@@ -2603,11 +2720,13 @@
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
@@ -2622,19 +2741,19 @@
       <c r="P6" s="36"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
       <c r="U6" s="39"/>
-      <c r="V6" s="40">
-        <v>44813.66666666667</v>
+      <c r="V6" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="W6" s="41"/>
       <c r="X6" s="41"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
@@ -2642,7 +2761,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
@@ -2659,7 +2778,7 @@
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -2678,7 +2797,7 @@
       <c r="P7" s="36"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
@@ -2700,7 +2819,7 @@
       <c r="AJ7" s="45"/>
       <c r="AK7" s="46"/>
       <c r="AL7" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM7" s="47"/>
       <c r="AN7" s="47"/>
@@ -2711,7 +2830,7 @@
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2720,10 +2839,10 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2731,10 +2850,10 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -2743,7 +2862,7 @@
       <c r="U8" s="36"/>
       <c r="V8" s="49"/>
       <c r="W8" s="36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -2751,11 +2870,11 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="50"/>
       <c r="AC8" s="36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="51" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -2764,7 +2883,7 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="50"/>
       <c r="AL8" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
@@ -2866,7 +2985,9 @@
       <c r="AR10" s="73"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
+      <c r="A11" s="74" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
@@ -2874,21 +2995,29 @@
       <c r="F11" s="70"/>
       <c r="G11" s="78"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="79"/>
+      <c r="I11" s="79" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
       <c r="N11" s="78"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="71"/>
+      <c r="O11" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>45</v>
+      </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
       <c r="U11" s="73"/>
       <c r="V11" s="74"/>
-      <c r="W11" s="71"/>
+      <c r="W11" s="71" t="s">
+        <v>46</v>
+      </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
       <c r="Z11" s="72"/>
@@ -2896,14 +3025,18 @@
       <c r="AB11" s="75"/>
       <c r="AC11" s="80"/>
       <c r="AD11" s="81"/>
-      <c r="AE11" s="77"/>
+      <c r="AE11" s="77" t="s">
+        <v>47</v>
+      </c>
       <c r="AF11" s="70"/>
       <c r="AG11" s="70"/>
       <c r="AH11" s="70"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="70"/>
       <c r="AK11" s="78"/>
-      <c r="AL11" s="82"/>
+      <c r="AL11" s="82" t="s">
+        <v>48</v>
+      </c>
       <c r="AM11" s="82"/>
       <c r="AN11" s="82"/>
       <c r="AO11" s="82"/>
@@ -2926,8 +3059,12 @@
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
       <c r="N12" s="87"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="71"/>
+      <c r="O12" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="71" t="s">
+        <v>50</v>
+      </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
       <c r="S12" s="72"/>
@@ -2942,7 +3079,9 @@
       <c r="AB12" s="75"/>
       <c r="AC12" s="76"/>
       <c r="AD12" s="76"/>
-      <c r="AE12" s="77"/>
+      <c r="AE12" s="77" t="s">
+        <v>51</v>
+      </c>
       <c r="AF12" s="72"/>
       <c r="AG12" s="72"/>
       <c r="AH12" s="72"/>
@@ -2972,15 +3111,21 @@
       <c r="L13" s="86"/>
       <c r="M13" s="86"/>
       <c r="N13" s="87"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="88"/>
+      <c r="O13" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="88" t="s">
+        <v>45</v>
+      </c>
       <c r="Q13" s="89"/>
       <c r="R13" s="89"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
       <c r="V13" s="74"/>
-      <c r="W13" s="71"/>
+      <c r="W13" s="71" t="s">
+        <v>52</v>
+      </c>
       <c r="X13" s="72"/>
       <c r="Y13" s="72"/>
       <c r="Z13" s="72"/>
@@ -2988,14 +3133,18 @@
       <c r="AB13" s="75"/>
       <c r="AC13" s="76"/>
       <c r="AD13" s="76"/>
-      <c r="AE13" s="77"/>
+      <c r="AE13" s="77" t="s">
+        <v>53</v>
+      </c>
       <c r="AF13" s="72"/>
       <c r="AG13" s="72"/>
       <c r="AH13" s="72"/>
       <c r="AI13" s="72"/>
       <c r="AJ13" s="72"/>
       <c r="AK13" s="75"/>
-      <c r="AL13" s="90"/>
+      <c r="AL13" s="90" t="s">
+        <v>54</v>
+      </c>
       <c r="AM13" s="72"/>
       <c r="AN13" s="72"/>
       <c r="AO13" s="72"/>
@@ -3034,7 +3183,9 @@
       <c r="AB14" s="75"/>
       <c r="AC14" s="76"/>
       <c r="AD14" s="76"/>
-      <c r="AE14" s="77"/>
+      <c r="AE14" s="77" t="s">
+        <v>55</v>
+      </c>
       <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
       <c r="AH14" s="72"/>
@@ -3072,7 +3223,9 @@
       <c r="T15" s="92"/>
       <c r="U15" s="92"/>
       <c r="V15" s="74"/>
-      <c r="W15" s="71"/>
+      <c r="W15" s="71" t="s">
+        <v>56</v>
+      </c>
       <c r="X15" s="72"/>
       <c r="Y15" s="72"/>
       <c r="Z15" s="72"/>
@@ -3080,14 +3233,18 @@
       <c r="AB15" s="75"/>
       <c r="AC15" s="76"/>
       <c r="AD15" s="76"/>
-      <c r="AE15" s="77"/>
+      <c r="AE15" s="77" t="s">
+        <v>57</v>
+      </c>
       <c r="AF15" s="72"/>
       <c r="AG15" s="72"/>
       <c r="AH15" s="72"/>
       <c r="AI15" s="72"/>
       <c r="AJ15" s="72"/>
       <c r="AK15" s="75"/>
-      <c r="AL15" s="72"/>
+      <c r="AL15" s="72" t="s">
+        <v>58</v>
+      </c>
       <c r="AM15" s="72"/>
       <c r="AN15" s="72"/>
       <c r="AO15" s="72"/>
@@ -3126,7 +3283,9 @@
       <c r="AB16" s="75"/>
       <c r="AC16" s="76"/>
       <c r="AD16" s="76"/>
-      <c r="AE16" s="77"/>
+      <c r="AE16" s="77" t="s">
+        <v>59</v>
+      </c>
       <c r="AF16" s="72"/>
       <c r="AG16" s="72"/>
       <c r="AH16" s="72"/>
@@ -3164,7 +3323,9 @@
       <c r="T17" s="72"/>
       <c r="U17" s="72"/>
       <c r="V17" s="74"/>
-      <c r="W17" s="71"/>
+      <c r="W17" s="71" t="s">
+        <v>60</v>
+      </c>
       <c r="X17" s="72"/>
       <c r="Y17" s="72"/>
       <c r="Z17" s="72"/>
@@ -3172,14 +3333,18 @@
       <c r="AB17" s="75"/>
       <c r="AC17" s="76"/>
       <c r="AD17" s="76"/>
-      <c r="AE17" s="77"/>
+      <c r="AE17" s="77" t="s">
+        <v>61</v>
+      </c>
       <c r="AF17" s="72"/>
       <c r="AG17" s="72"/>
       <c r="AH17" s="72"/>
       <c r="AI17" s="72"/>
       <c r="AJ17" s="72"/>
       <c r="AK17" s="75"/>
-      <c r="AL17" s="90"/>
+      <c r="AL17" s="90" t="s">
+        <v>49</v>
+      </c>
       <c r="AM17" s="72"/>
       <c r="AN17" s="72"/>
       <c r="AO17" s="72"/>
@@ -3218,7 +3383,9 @@
       <c r="AB18" s="75"/>
       <c r="AC18" s="76"/>
       <c r="AD18" s="76"/>
-      <c r="AE18" s="77"/>
+      <c r="AE18" s="77" t="s">
+        <v>49</v>
+      </c>
       <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
       <c r="AH18" s="72"/>
@@ -3256,7 +3423,9 @@
       <c r="T19" s="72"/>
       <c r="U19" s="72"/>
       <c r="V19" s="74"/>
-      <c r="W19" s="71"/>
+      <c r="W19" s="71" t="s">
+        <v>62</v>
+      </c>
       <c r="X19" s="72"/>
       <c r="Y19" s="72"/>
       <c r="Z19" s="72"/>
@@ -3264,14 +3433,18 @@
       <c r="AB19" s="75"/>
       <c r="AC19" s="76"/>
       <c r="AD19" s="76"/>
-      <c r="AE19" s="77"/>
+      <c r="AE19" s="77" t="s">
+        <v>63</v>
+      </c>
       <c r="AF19" s="72"/>
       <c r="AG19" s="72"/>
       <c r="AH19" s="72"/>
       <c r="AI19" s="72"/>
       <c r="AJ19" s="72"/>
       <c r="AK19" s="75"/>
-      <c r="AL19" s="72"/>
+      <c r="AL19" s="72" t="s">
+        <v>49</v>
+      </c>
       <c r="AM19" s="72"/>
       <c r="AN19" s="72"/>
       <c r="AO19" s="72"/>
@@ -3310,7 +3483,9 @@
       <c r="AB20" s="75"/>
       <c r="AC20" s="76"/>
       <c r="AD20" s="76"/>
-      <c r="AE20" s="77"/>
+      <c r="AE20" s="77" t="s">
+        <v>49</v>
+      </c>
       <c r="AF20" s="72"/>
       <c r="AG20" s="72"/>
       <c r="AH20" s="72"/>
@@ -3348,7 +3523,9 @@
       <c r="T21" s="72"/>
       <c r="U21" s="72"/>
       <c r="V21" s="74"/>
-      <c r="W21" s="71"/>
+      <c r="W21" s="71" t="s">
+        <v>52</v>
+      </c>
       <c r="X21" s="72"/>
       <c r="Y21" s="72"/>
       <c r="Z21" s="72"/>
@@ -3356,14 +3533,18 @@
       <c r="AB21" s="75"/>
       <c r="AC21" s="76"/>
       <c r="AD21" s="76"/>
-      <c r="AE21" s="77"/>
+      <c r="AE21" s="77" t="s">
+        <v>64</v>
+      </c>
       <c r="AF21" s="72"/>
       <c r="AG21" s="72"/>
       <c r="AH21" s="72"/>
       <c r="AI21" s="72"/>
       <c r="AJ21" s="72"/>
       <c r="AK21" s="75"/>
-      <c r="AL21" s="72"/>
+      <c r="AL21" s="72" t="s">
+        <v>49</v>
+      </c>
       <c r="AM21" s="72"/>
       <c r="AN21" s="72"/>
       <c r="AO21" s="72"/>
@@ -3402,7 +3583,9 @@
       <c r="AB22" s="75"/>
       <c r="AC22" s="76"/>
       <c r="AD22" s="76"/>
-      <c r="AE22" s="77"/>
+      <c r="AE22" s="77" t="s">
+        <v>49</v>
+      </c>
       <c r="AF22" s="72"/>
       <c r="AG22" s="72"/>
       <c r="AH22" s="72"/>
@@ -3440,7 +3623,9 @@
       <c r="T23" s="72"/>
       <c r="U23" s="72"/>
       <c r="V23" s="74"/>
-      <c r="W23" s="71"/>
+      <c r="W23" s="71" t="s">
+        <v>65</v>
+      </c>
       <c r="X23" s="72"/>
       <c r="Y23" s="72"/>
       <c r="Z23" s="72"/>
@@ -3448,14 +3633,18 @@
       <c r="AB23" s="75"/>
       <c r="AC23" s="76"/>
       <c r="AD23" s="76"/>
-      <c r="AE23" s="77"/>
+      <c r="AE23" s="77" t="s">
+        <v>66</v>
+      </c>
       <c r="AF23" s="72"/>
       <c r="AG23" s="72"/>
       <c r="AH23" s="72"/>
       <c r="AI23" s="72"/>
       <c r="AJ23" s="72"/>
       <c r="AK23" s="75"/>
-      <c r="AL23" s="72"/>
+      <c r="AL23" s="72" t="s">
+        <v>49</v>
+      </c>
       <c r="AM23" s="72"/>
       <c r="AN23" s="72"/>
       <c r="AO23" s="72"/>
@@ -3494,7 +3683,9 @@
       <c r="AB24" s="75"/>
       <c r="AC24" s="76"/>
       <c r="AD24" s="76"/>
-      <c r="AE24" s="77"/>
+      <c r="AE24" s="77" t="s">
+        <v>49</v>
+      </c>
       <c r="AF24" s="72"/>
       <c r="AG24" s="72"/>
       <c r="AH24" s="72"/>
@@ -3532,7 +3723,9 @@
       <c r="T25" s="72"/>
       <c r="U25" s="72"/>
       <c r="V25" s="74"/>
-      <c r="W25" s="71"/>
+      <c r="W25" s="71" t="s">
+        <v>46</v>
+      </c>
       <c r="X25" s="72"/>
       <c r="Y25" s="72"/>
       <c r="Z25" s="72"/>
@@ -3540,14 +3733,18 @@
       <c r="AB25" s="75"/>
       <c r="AC25" s="76"/>
       <c r="AD25" s="76"/>
-      <c r="AE25" s="77"/>
+      <c r="AE25" s="77" t="s">
+        <v>67</v>
+      </c>
       <c r="AF25" s="72"/>
       <c r="AG25" s="72"/>
       <c r="AH25" s="72"/>
       <c r="AI25" s="72"/>
       <c r="AJ25" s="72"/>
       <c r="AK25" s="75"/>
-      <c r="AL25" s="72"/>
+      <c r="AL25" s="72" t="s">
+        <v>49</v>
+      </c>
       <c r="AM25" s="72"/>
       <c r="AN25" s="72"/>
       <c r="AO25" s="72"/>
@@ -3586,7 +3783,9 @@
       <c r="AB26" s="75"/>
       <c r="AC26" s="76"/>
       <c r="AD26" s="76"/>
-      <c r="AE26" s="77"/>
+      <c r="AE26" s="77" t="s">
+        <v>49</v>
+      </c>
       <c r="AF26" s="72"/>
       <c r="AG26" s="72"/>
       <c r="AH26" s="72"/>
@@ -3624,7 +3823,9 @@
       <c r="T27" s="92"/>
       <c r="U27" s="92"/>
       <c r="V27" s="74"/>
-      <c r="W27" s="71"/>
+      <c r="W27" s="71" t="s">
+        <v>68</v>
+      </c>
       <c r="X27" s="72"/>
       <c r="Y27" s="72"/>
       <c r="Z27" s="72"/>
@@ -3632,14 +3833,18 @@
       <c r="AB27" s="75"/>
       <c r="AC27" s="76"/>
       <c r="AD27" s="76"/>
-      <c r="AE27" s="77"/>
+      <c r="AE27" s="77" t="s">
+        <v>69</v>
+      </c>
       <c r="AF27" s="72"/>
       <c r="AG27" s="72"/>
       <c r="AH27" s="72"/>
       <c r="AI27" s="72"/>
       <c r="AJ27" s="72"/>
       <c r="AK27" s="75"/>
-      <c r="AL27" s="90"/>
+      <c r="AL27" s="90" t="s">
+        <v>49</v>
+      </c>
       <c r="AM27" s="72"/>
       <c r="AN27" s="72"/>
       <c r="AO27" s="72"/>
@@ -3678,7 +3883,9 @@
       <c r="AB28" s="75"/>
       <c r="AC28" s="76"/>
       <c r="AD28" s="76"/>
-      <c r="AE28" s="77"/>
+      <c r="AE28" s="77" t="s">
+        <v>49</v>
+      </c>
       <c r="AF28" s="72"/>
       <c r="AG28" s="72"/>
       <c r="AH28" s="72"/>
@@ -3716,7 +3923,9 @@
       <c r="T29" s="92"/>
       <c r="U29" s="92"/>
       <c r="V29" s="74"/>
-      <c r="W29" s="71"/>
+      <c r="W29" s="71" t="s">
+        <v>70</v>
+      </c>
       <c r="X29" s="72"/>
       <c r="Y29" s="72"/>
       <c r="Z29" s="72"/>
@@ -3724,14 +3933,18 @@
       <c r="AB29" s="75"/>
       <c r="AC29" s="76"/>
       <c r="AD29" s="76"/>
-      <c r="AE29" s="77"/>
+      <c r="AE29" s="77" t="s">
+        <v>71</v>
+      </c>
       <c r="AF29" s="72"/>
       <c r="AG29" s="72"/>
       <c r="AH29" s="72"/>
       <c r="AI29" s="72"/>
       <c r="AJ29" s="72"/>
       <c r="AK29" s="75"/>
-      <c r="AL29" s="90"/>
+      <c r="AL29" s="90" t="s">
+        <v>49</v>
+      </c>
       <c r="AM29" s="72"/>
       <c r="AN29" s="72"/>
       <c r="AO29" s="72"/>
@@ -3770,7 +3983,9 @@
       <c r="AB30" s="75"/>
       <c r="AC30" s="76"/>
       <c r="AD30" s="76"/>
-      <c r="AE30" s="77"/>
+      <c r="AE30" s="77" t="s">
+        <v>49</v>
+      </c>
       <c r="AF30" s="72"/>
       <c r="AG30" s="72"/>
       <c r="AH30" s="72"/>
@@ -3879,7 +4094,7 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="109" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
@@ -3888,9 +4103,8 @@
       <c r="F33" s="110"/>
       <c r="G33" s="110"/>
       <c r="H33" s="111"/>
-      <c r="I33" s="112">
-        <f>SUM(I9:I32)</f>
-        <v>0</v>
+      <c r="I33" s="112" t="s">
+        <v>22</v>
       </c>
       <c r="J33" s="113"/>
       <c r="K33" s="113"/>
@@ -3913,7 +4127,9 @@
       <c r="AB33" s="122"/>
       <c r="AC33" s="123"/>
       <c r="AD33" s="123"/>
-      <c r="AE33" s="124"/>
+      <c r="AE33" s="124" t="s">
+        <v>73</v>
+      </c>
       <c r="AF33" s="125"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="125"/>
@@ -3951,7 +4167,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="130" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
@@ -3960,11 +4176,11 @@
       <c r="AA34" s="18"/>
       <c r="AB34" s="131"/>
       <c r="AC34" s="132" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AD34" s="132"/>
       <c r="AE34" s="130" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
@@ -3973,7 +4189,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="131"/>
       <c r="AL34" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM34" s="18"/>
       <c r="AN34" s="18"/>
@@ -4004,23 +4220,31 @@
       <c r="S35" s="137"/>
       <c r="T35" s="137"/>
       <c r="U35" s="137"/>
-      <c r="V35" s="135"/>
+      <c r="V35" s="135" t="s">
+        <v>73</v>
+      </c>
       <c r="W35" s="134"/>
       <c r="X35" s="134"/>
       <c r="Y35" s="134"/>
       <c r="Z35" s="134"/>
       <c r="AA35" s="134"/>
       <c r="AB35" s="136"/>
-      <c r="AC35" s="138"/>
+      <c r="AC35" s="138" t="s">
+        <v>77</v>
+      </c>
       <c r="AD35" s="139"/>
-      <c r="AE35" s="135"/>
+      <c r="AE35" s="135" t="s">
+        <v>78</v>
+      </c>
       <c r="AF35" s="137"/>
       <c r="AG35" s="137"/>
       <c r="AH35" s="137"/>
       <c r="AI35" s="137"/>
       <c r="AJ35" s="137"/>
       <c r="AK35" s="140"/>
-      <c r="AL35" s="135"/>
+      <c r="AL35" s="135" t="s">
+        <v>22</v>
+      </c>
       <c r="AM35" s="137"/>
       <c r="AN35" s="137"/>
       <c r="AO35" s="137"/>
@@ -4198,7 +4422,7 @@
       <c r="AC39" s="153"/>
       <c r="AD39" s="153"/>
       <c r="AE39" s="154" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AF39" s="155"/>
       <c r="AG39" s="155"/>
@@ -4219,7 +4443,7 @@
     </row>
     <row r="40" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="157" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B40" s="158"/>
       <c r="C40" s="158"/>
@@ -4242,7 +4466,7 @@
       <c r="T40" s="158"/>
       <c r="U40" s="158"/>
       <c r="V40" s="158" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="W40" s="158"/>
       <c r="X40" s="158"/>
@@ -4253,7 +4477,7 @@
       <c r="AC40" s="119"/>
       <c r="AD40" s="160"/>
       <c r="AE40" s="154" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AF40" s="154"/>
       <c r="AG40" s="154"/>
@@ -4265,12 +4489,12 @@
       <c r="AM40" s="36"/>
       <c r="AN40" s="36"/>
       <c r="AO40" s="36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP40" s="36"/>
       <c r="AQ40" s="36"/>
       <c r="AR40" s="43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -4367,7 +4591,7 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -4461,7 +4685,7 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4502,7 +4726,7 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="168" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
@@ -4511,66 +4735,66 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="50"/>
       <c r="H46" s="36" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="51" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="51" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="50"/>
       <c r="W46" s="36" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="51" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="50"/>
       <c r="AG46" s="36" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
       <c r="AL46" s="51" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AM46" s="36"/>
       <c r="AN46" s="36"/>
       <c r="AO46" s="37"/>
       <c r="AP46" s="51" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AQ46" s="13"/>
       <c r="AR46" s="35"/>
@@ -4620,7 +4844,7 @@
       <c r="AP47" s="175"/>
       <c r="AQ47" s="176"/>
       <c r="AR47" s="177" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -4668,12 +4892,12 @@
       <c r="AP48" s="184"/>
       <c r="AQ48" s="185"/>
       <c r="AR48" s="186" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4791,28 +5015,28 @@
       <c r="W51" s="189"/>
       <c r="X51" s="190"/>
       <c r="Y51" s="191" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="Z51" s="192"/>
       <c r="AA51" s="192"/>
       <c r="AB51" s="192"/>
       <c r="AC51" s="193"/>
       <c r="AD51" s="194" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="AE51" s="192"/>
       <c r="AF51" s="192"/>
       <c r="AG51" s="192"/>
       <c r="AH51" s="193"/>
       <c r="AI51" s="194" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AJ51" s="158"/>
       <c r="AK51" s="158"/>
       <c r="AL51" s="158"/>
       <c r="AM51" s="195"/>
       <c r="AN51" s="194" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AO51" s="192"/>
       <c r="AP51" s="192"/>

--- a/public/01.xlsx
+++ b/public/01.xlsx
@@ -22,7 +22,7 @@
     <t>NO.</t>
   </si>
   <si>
-    <t>22-005</t>
+    <t>22-999</t>
   </si>
   <si>
     <t>入札</t>
@@ -43,7 +43,7 @@
     <t>年</t>
   </si>
   <si>
-    <t>09</t>
+    <t>05</t>
   </si>
   <si>
     <t>月</t>
@@ -58,31 +58,31 @@
     <t>契約公司</t>
   </si>
   <si>
-    <t>富台機械開發建設有限公司</t>
+    <t>玉登室內裝修有限公司</t>
   </si>
   <si>
     <t>地名</t>
   </si>
   <si>
-    <t>南投縣</t>
+    <t>臺中市</t>
   </si>
   <si>
     <t>工事名</t>
   </si>
   <si>
-    <t>サイバーパンクエッジランナーズ</t>
+    <t>三井</t>
   </si>
   <si>
     <t>担当者</t>
   </si>
   <si>
-    <t xml:space="preserve">B20000員工 C30000外人 O95485章魚燒 </t>
+    <t xml:space="preserve">A10000管理員 </t>
   </si>
   <si>
     <t>契約金額</t>
   </si>
   <si>
-    <t>80,000,000</t>
+    <t>24,700,000</t>
   </si>
   <si>
     <t>NTD</t>
@@ -91,7 +91,7 @@
     <t>坪数</t>
   </si>
   <si>
-    <t>400</t>
+    <t>250.68</t>
   </si>
   <si>
     <t>P</t>
@@ -100,7 +100,7 @@
     <t>坪単価</t>
   </si>
   <si>
-    <t>20,777</t>
+    <t>98,532</t>
   </si>
   <si>
     <t>新店</t>
@@ -109,13 +109,13 @@
     <t>工期</t>
   </si>
   <si>
-    <t>2022.09.08~09.08</t>
+    <t>2022.10.11~12.30</t>
   </si>
   <si>
     <t>開幕日</t>
   </si>
   <si>
-    <t>2022.09.10</t>
+    <t>2023.01.20</t>
   </si>
   <si>
     <t>協力業者</t>
@@ -148,94 +148,94 @@
     <t>支払金額</t>
   </si>
   <si>
-    <t>ok</t>
+    <t/>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>玉登</t>
+  </si>
+  <si>
+    <t>15,000,000</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>-500,000</t>
   </si>
   <si>
     <t>30%</t>
   </si>
   <si>
-    <t>大道汽車</t>
-  </si>
-  <si>
-    <t>6,000,000</t>
-  </si>
-  <si>
-    <t>車窗</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>-100,000</t>
-  </si>
-  <si>
-    <t>九州</t>
-  </si>
-  <si>
-    <t>8,800,000</t>
-  </si>
-  <si>
-    <t>水泥</t>
-  </si>
-  <si>
-    <t>-550,000</t>
-  </si>
-  <si>
-    <t>福興園</t>
-  </si>
-  <si>
-    <t>1,110,000</t>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
-  <si>
-    <t>-110,000</t>
-  </si>
-  <si>
-    <t>一成</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>三合</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>1592700</t>
-  </si>
-  <si>
-    <t>八達</t>
-  </si>
-  <si>
-    <t>470000</t>
-  </si>
-  <si>
-    <t>75000</t>
-  </si>
-  <si>
-    <t>大基報關</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>上海煤氣</t>
-  </si>
-  <si>
-    <t>35000</t>
+    <t>LINTEC</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t>進口西德 IROMIZU</t>
+  </si>
+  <si>
+    <t>大金空調</t>
+  </si>
+  <si>
+    <t>3,840,000</t>
+  </si>
+  <si>
+    <t>-190,000</t>
+  </si>
+  <si>
+    <t>興昇</t>
+  </si>
+  <si>
+    <t>60,000</t>
+  </si>
+  <si>
+    <t>店頭螢幕</t>
+  </si>
+  <si>
+    <t>創意家具</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>悠尼淇</t>
+  </si>
+  <si>
+    <t>1,592,700</t>
+  </si>
+  <si>
+    <t>富銘地板</t>
+  </si>
+  <si>
+    <t>470,000</t>
+  </si>
+  <si>
+    <t>和印紙</t>
+  </si>
+  <si>
+    <t>75,000</t>
+  </si>
+  <si>
+    <t>神預備</t>
+  </si>
+  <si>
+    <t>300,000</t>
+  </si>
+  <si>
+    <t>丞石</t>
+  </si>
+  <si>
+    <t>35,000</t>
   </si>
   <si>
     <t>合計金額</t>
   </si>
   <si>
-    <t>15,150,000</t>
+    <t>20,812,700</t>
   </si>
   <si>
     <t>総原価合計</t>
@@ -247,10 +247,10 @@
     <t>粗利額</t>
   </si>
   <si>
-    <t>18.94%</t>
-  </si>
-  <si>
-    <t>64,850,000</t>
+    <t>84.26%</t>
+  </si>
+  <si>
+    <t>3,887,300</t>
   </si>
   <si>
     <t>決定契約金額</t>
@@ -3035,7 +3035,7 @@
       <c r="AJ11" s="70"/>
       <c r="AK11" s="78"/>
       <c r="AL11" s="82" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM11" s="82"/>
       <c r="AN11" s="82"/>
@@ -3060,10 +3060,10 @@
       <c r="M12" s="86"/>
       <c r="N12" s="87"/>
       <c r="O12" s="70" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P12" s="71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
@@ -3080,7 +3080,7 @@
       <c r="AC12" s="76"/>
       <c r="AD12" s="76"/>
       <c r="AE12" s="77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF12" s="72"/>
       <c r="AG12" s="72"/>
@@ -3112,10 +3112,10 @@
       <c r="M13" s="86"/>
       <c r="N13" s="87"/>
       <c r="O13" s="66" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P13" s="88" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="89"/>
       <c r="R13" s="89"/>
@@ -3124,7 +3124,7 @@
       <c r="U13" s="89"/>
       <c r="V13" s="74"/>
       <c r="W13" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X13" s="72"/>
       <c r="Y13" s="72"/>
@@ -3134,7 +3134,7 @@
       <c r="AC13" s="76"/>
       <c r="AD13" s="76"/>
       <c r="AE13" s="77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF13" s="72"/>
       <c r="AG13" s="72"/>
@@ -3143,7 +3143,7 @@
       <c r="AJ13" s="72"/>
       <c r="AK13" s="75"/>
       <c r="AL13" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM13" s="72"/>
       <c r="AN13" s="72"/>
@@ -3184,7 +3184,7 @@
       <c r="AC14" s="76"/>
       <c r="AD14" s="76"/>
       <c r="AE14" s="77" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
@@ -3224,7 +3224,7 @@
       <c r="U15" s="92"/>
       <c r="V15" s="74"/>
       <c r="W15" s="71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X15" s="72"/>
       <c r="Y15" s="72"/>
@@ -3234,7 +3234,7 @@
       <c r="AC15" s="76"/>
       <c r="AD15" s="76"/>
       <c r="AE15" s="77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF15" s="72"/>
       <c r="AG15" s="72"/>
@@ -3243,7 +3243,7 @@
       <c r="AJ15" s="72"/>
       <c r="AK15" s="75"/>
       <c r="AL15" s="72" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AM15" s="72"/>
       <c r="AN15" s="72"/>
@@ -3284,7 +3284,7 @@
       <c r="AC16" s="76"/>
       <c r="AD16" s="76"/>
       <c r="AE16" s="77" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF16" s="72"/>
       <c r="AG16" s="72"/>
@@ -3324,7 +3324,7 @@
       <c r="U17" s="72"/>
       <c r="V17" s="74"/>
       <c r="W17" s="71" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X17" s="72"/>
       <c r="Y17" s="72"/>
@@ -3334,7 +3334,7 @@
       <c r="AC17" s="76"/>
       <c r="AD17" s="76"/>
       <c r="AE17" s="77" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AF17" s="72"/>
       <c r="AG17" s="72"/>
@@ -3343,7 +3343,7 @@
       <c r="AJ17" s="72"/>
       <c r="AK17" s="75"/>
       <c r="AL17" s="90" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AM17" s="72"/>
       <c r="AN17" s="72"/>
@@ -3384,7 +3384,7 @@
       <c r="AC18" s="76"/>
       <c r="AD18" s="76"/>
       <c r="AE18" s="77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
@@ -3424,7 +3424,7 @@
       <c r="U19" s="72"/>
       <c r="V19" s="74"/>
       <c r="W19" s="71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X19" s="72"/>
       <c r="Y19" s="72"/>
@@ -3434,7 +3434,7 @@
       <c r="AC19" s="76"/>
       <c r="AD19" s="76"/>
       <c r="AE19" s="77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AF19" s="72"/>
       <c r="AG19" s="72"/>
@@ -3443,7 +3443,7 @@
       <c r="AJ19" s="72"/>
       <c r="AK19" s="75"/>
       <c r="AL19" s="72" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AM19" s="72"/>
       <c r="AN19" s="72"/>
@@ -3484,7 +3484,7 @@
       <c r="AC20" s="76"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF20" s="72"/>
       <c r="AG20" s="72"/>
@@ -3524,7 +3524,7 @@
       <c r="U21" s="72"/>
       <c r="V21" s="74"/>
       <c r="W21" s="71" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="X21" s="72"/>
       <c r="Y21" s="72"/>
@@ -3534,7 +3534,7 @@
       <c r="AC21" s="76"/>
       <c r="AD21" s="76"/>
       <c r="AE21" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF21" s="72"/>
       <c r="AG21" s="72"/>
@@ -3543,7 +3543,7 @@
       <c r="AJ21" s="72"/>
       <c r="AK21" s="75"/>
       <c r="AL21" s="72" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AM21" s="72"/>
       <c r="AN21" s="72"/>
@@ -3584,7 +3584,7 @@
       <c r="AC22" s="76"/>
       <c r="AD22" s="76"/>
       <c r="AE22" s="77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF22" s="72"/>
       <c r="AG22" s="72"/>
@@ -3624,7 +3624,7 @@
       <c r="U23" s="72"/>
       <c r="V23" s="74"/>
       <c r="W23" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X23" s="72"/>
       <c r="Y23" s="72"/>
@@ -3634,7 +3634,7 @@
       <c r="AC23" s="76"/>
       <c r="AD23" s="76"/>
       <c r="AE23" s="77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF23" s="72"/>
       <c r="AG23" s="72"/>
@@ -3643,7 +3643,7 @@
       <c r="AJ23" s="72"/>
       <c r="AK23" s="75"/>
       <c r="AL23" s="72" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AM23" s="72"/>
       <c r="AN23" s="72"/>
@@ -3684,7 +3684,7 @@
       <c r="AC24" s="76"/>
       <c r="AD24" s="76"/>
       <c r="AE24" s="77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF24" s="72"/>
       <c r="AG24" s="72"/>
@@ -3724,7 +3724,7 @@
       <c r="U25" s="72"/>
       <c r="V25" s="74"/>
       <c r="W25" s="71" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="X25" s="72"/>
       <c r="Y25" s="72"/>
@@ -3743,7 +3743,7 @@
       <c r="AJ25" s="72"/>
       <c r="AK25" s="75"/>
       <c r="AL25" s="72" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AM25" s="72"/>
       <c r="AN25" s="72"/>
@@ -3784,7 +3784,7 @@
       <c r="AC26" s="76"/>
       <c r="AD26" s="76"/>
       <c r="AE26" s="77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF26" s="72"/>
       <c r="AG26" s="72"/>
@@ -3843,7 +3843,7 @@
       <c r="AJ27" s="72"/>
       <c r="AK27" s="75"/>
       <c r="AL27" s="90" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AM27" s="72"/>
       <c r="AN27" s="72"/>
@@ -3884,7 +3884,7 @@
       <c r="AC28" s="76"/>
       <c r="AD28" s="76"/>
       <c r="AE28" s="77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF28" s="72"/>
       <c r="AG28" s="72"/>
@@ -3943,7 +3943,7 @@
       <c r="AJ29" s="72"/>
       <c r="AK29" s="75"/>
       <c r="AL29" s="90" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AM29" s="72"/>
       <c r="AN29" s="72"/>
@@ -3984,7 +3984,7 @@
       <c r="AC30" s="76"/>
       <c r="AD30" s="76"/>
       <c r="AE30" s="77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AF30" s="72"/>
       <c r="AG30" s="72"/>

--- a/public/01.xlsx
+++ b/public/01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t xml:space="preserve">受注報告　</t>
   </si>
@@ -43,13 +43,13 @@
     <t>年</t>
   </si>
   <si>
-    <t>05</t>
+    <t>09</t>
   </si>
   <si>
     <t>月</t>
   </si>
   <si>
-    <t>30</t>
+    <t>20</t>
   </si>
   <si>
     <t>日</t>
@@ -58,19 +58,19 @@
     <t>契約公司</t>
   </si>
   <si>
-    <t>玉登室內裝修有限公司</t>
+    <t>台灣聚思怡股份有限公司</t>
   </si>
   <si>
     <t>地名</t>
   </si>
   <si>
-    <t>臺中市</t>
+    <t>南投縣</t>
   </si>
   <si>
     <t>工事名</t>
   </si>
   <si>
-    <t>三井</t>
+    <t>測試</t>
   </si>
   <si>
     <t>担当者</t>
@@ -82,7 +82,7 @@
     <t>契約金額</t>
   </si>
   <si>
-    <t>24,700,000</t>
+    <t>60,000,000</t>
   </si>
   <si>
     <t>NTD</t>
@@ -91,7 +91,7 @@
     <t>坪数</t>
   </si>
   <si>
-    <t>250.68</t>
+    <t>80.5</t>
   </si>
   <si>
     <t>P</t>
@@ -100,22 +100,22 @@
     <t>坪単価</t>
   </si>
   <si>
-    <t>98,532</t>
-  </si>
-  <si>
-    <t>新店</t>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>改裝</t>
   </si>
   <si>
     <t>工期</t>
   </si>
   <si>
-    <t>2022.10.11~12.30</t>
+    <t>2022.09.23~09.03</t>
   </si>
   <si>
     <t>開幕日</t>
   </si>
   <si>
-    <t>2023.01.20</t>
+    <t>2022.09.09</t>
   </si>
   <si>
     <t>協力業者</t>
@@ -151,33 +151,36 @@
     <t/>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>玉登</t>
-  </si>
-  <si>
-    <t>15,000,000</t>
-  </si>
-  <si>
-    <t>40%</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>泰煜</t>
+  </si>
+  <si>
+    <t>50,000,000</t>
+  </si>
+  <si>
+    <t>拉拉</t>
+  </si>
+  <si>
+    <t>-300,000</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>大基報關</t>
+  </si>
+  <si>
+    <t>5,000,000</t>
+  </si>
+  <si>
+    <t>沒</t>
   </si>
   <si>
     <t>-500,000</t>
   </si>
   <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>LINTEC</t>
-  </si>
-  <si>
-    <t>30,000</t>
-  </si>
-  <si>
-    <t>進口西德 IROMIZU</t>
-  </si>
-  <si>
     <t>大金空調</t>
   </si>
   <si>
@@ -235,7 +238,7 @@
     <t>合計金額</t>
   </si>
   <si>
-    <t>20,812,700</t>
+    <t>54,200,000</t>
   </si>
   <si>
     <t>総原価合計</t>
@@ -247,10 +250,10 @@
     <t>粗利額</t>
   </si>
   <si>
-    <t>84.26%</t>
-  </si>
-  <si>
-    <t>3,887,300</t>
+    <t>90.33%</t>
+  </si>
+  <si>
+    <t>5,800,000</t>
   </si>
   <si>
     <t>決定契約金額</t>
@@ -3035,7 +3038,7 @@
       <c r="AJ11" s="70"/>
       <c r="AK11" s="78"/>
       <c r="AL11" s="82" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM11" s="82"/>
       <c r="AN11" s="82"/>
@@ -3063,7 +3066,7 @@
         <v>44</v>
       </c>
       <c r="P12" s="71" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
@@ -3184,7 +3187,7 @@
       <c r="AC14" s="76"/>
       <c r="AD14" s="76"/>
       <c r="AE14" s="77" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
@@ -3224,7 +3227,7 @@
       <c r="U15" s="92"/>
       <c r="V15" s="74"/>
       <c r="W15" s="71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X15" s="72"/>
       <c r="Y15" s="72"/>
@@ -3234,7 +3237,7 @@
       <c r="AC15" s="76"/>
       <c r="AD15" s="76"/>
       <c r="AE15" s="77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF15" s="72"/>
       <c r="AG15" s="72"/>
@@ -3284,7 +3287,7 @@
       <c r="AC16" s="76"/>
       <c r="AD16" s="76"/>
       <c r="AE16" s="77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF16" s="72"/>
       <c r="AG16" s="72"/>
@@ -3324,7 +3327,7 @@
       <c r="U17" s="72"/>
       <c r="V17" s="74"/>
       <c r="W17" s="71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X17" s="72"/>
       <c r="Y17" s="72"/>
@@ -3334,7 +3337,7 @@
       <c r="AC17" s="76"/>
       <c r="AD17" s="76"/>
       <c r="AE17" s="77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF17" s="72"/>
       <c r="AG17" s="72"/>
@@ -3343,7 +3346,7 @@
       <c r="AJ17" s="72"/>
       <c r="AK17" s="75"/>
       <c r="AL17" s="90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM17" s="72"/>
       <c r="AN17" s="72"/>
@@ -3424,7 +3427,7 @@
       <c r="U19" s="72"/>
       <c r="V19" s="74"/>
       <c r="W19" s="71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X19" s="72"/>
       <c r="Y19" s="72"/>
@@ -3434,7 +3437,7 @@
       <c r="AC19" s="76"/>
       <c r="AD19" s="76"/>
       <c r="AE19" s="77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF19" s="72"/>
       <c r="AG19" s="72"/>
@@ -3524,7 +3527,7 @@
       <c r="U21" s="72"/>
       <c r="V21" s="74"/>
       <c r="W21" s="71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X21" s="72"/>
       <c r="Y21" s="72"/>
@@ -3534,7 +3537,7 @@
       <c r="AC21" s="76"/>
       <c r="AD21" s="76"/>
       <c r="AE21" s="77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF21" s="72"/>
       <c r="AG21" s="72"/>
@@ -3624,7 +3627,7 @@
       <c r="U23" s="72"/>
       <c r="V23" s="74"/>
       <c r="W23" s="71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X23" s="72"/>
       <c r="Y23" s="72"/>
@@ -3634,7 +3637,7 @@
       <c r="AC23" s="76"/>
       <c r="AD23" s="76"/>
       <c r="AE23" s="77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF23" s="72"/>
       <c r="AG23" s="72"/>
@@ -3724,7 +3727,7 @@
       <c r="U25" s="72"/>
       <c r="V25" s="74"/>
       <c r="W25" s="71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X25" s="72"/>
       <c r="Y25" s="72"/>
@@ -3734,7 +3737,7 @@
       <c r="AC25" s="76"/>
       <c r="AD25" s="76"/>
       <c r="AE25" s="77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF25" s="72"/>
       <c r="AG25" s="72"/>
@@ -3824,7 +3827,7 @@
       <c r="U27" s="92"/>
       <c r="V27" s="74"/>
       <c r="W27" s="71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X27" s="72"/>
       <c r="Y27" s="72"/>
@@ -3834,7 +3837,7 @@
       <c r="AC27" s="76"/>
       <c r="AD27" s="76"/>
       <c r="AE27" s="77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF27" s="72"/>
       <c r="AG27" s="72"/>
@@ -3924,7 +3927,7 @@
       <c r="U29" s="92"/>
       <c r="V29" s="74"/>
       <c r="W29" s="71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X29" s="72"/>
       <c r="Y29" s="72"/>
@@ -3934,7 +3937,7 @@
       <c r="AC29" s="76"/>
       <c r="AD29" s="76"/>
       <c r="AE29" s="77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF29" s="72"/>
       <c r="AG29" s="72"/>
@@ -4094,7 +4097,7 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="109" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
@@ -4128,7 +4131,7 @@
       <c r="AC33" s="123"/>
       <c r="AD33" s="123"/>
       <c r="AE33" s="124" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF33" s="125"/>
       <c r="AG33" s="125"/>
@@ -4167,7 +4170,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="130" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
@@ -4176,11 +4179,11 @@
       <c r="AA34" s="18"/>
       <c r="AB34" s="131"/>
       <c r="AC34" s="132" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD34" s="132"/>
       <c r="AE34" s="130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
@@ -4221,7 +4224,7 @@
       <c r="T35" s="137"/>
       <c r="U35" s="137"/>
       <c r="V35" s="135" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" s="134"/>
       <c r="X35" s="134"/>
@@ -4230,11 +4233,11 @@
       <c r="AA35" s="134"/>
       <c r="AB35" s="136"/>
       <c r="AC35" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" s="139"/>
       <c r="AE35" s="135" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF35" s="137"/>
       <c r="AG35" s="137"/>
@@ -4422,7 +4425,7 @@
       <c r="AC39" s="153"/>
       <c r="AD39" s="153"/>
       <c r="AE39" s="154" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF39" s="155"/>
       <c r="AG39" s="155"/>
@@ -4443,7 +4446,7 @@
     </row>
     <row r="40" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="157" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="158"/>
       <c r="C40" s="158"/>
@@ -4466,7 +4469,7 @@
       <c r="T40" s="158"/>
       <c r="U40" s="158"/>
       <c r="V40" s="158" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W40" s="158"/>
       <c r="X40" s="158"/>
@@ -4477,7 +4480,7 @@
       <c r="AC40" s="119"/>
       <c r="AD40" s="160"/>
       <c r="AE40" s="154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF40" s="154"/>
       <c r="AG40" s="154"/>
@@ -4591,7 +4594,7 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -4685,7 +4688,7 @@
     </row>
     <row r="45" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4726,7 +4729,7 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="168" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
@@ -4735,7 +4738,7 @@
     </row>
     <row r="46" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -4746,49 +4749,49 @@
       <c r="F46" s="13"/>
       <c r="G46" s="50"/>
       <c r="H46" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="50"/>
       <c r="W46" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="50"/>
       <c r="AG46" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
       <c r="AK46" s="13"/>
       <c r="AL46" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM46" s="36"/>
       <c r="AN46" s="36"/>
@@ -4844,7 +4847,7 @@
       <c r="AP47" s="175"/>
       <c r="AQ47" s="176"/>
       <c r="AR47" s="177" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -4892,12 +4895,12 @@
       <c r="AP48" s="184"/>
       <c r="AQ48" s="185"/>
       <c r="AR48" s="186" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5015,28 +5018,28 @@
       <c r="W51" s="189"/>
       <c r="X51" s="190"/>
       <c r="Y51" s="191" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z51" s="192"/>
       <c r="AA51" s="192"/>
       <c r="AB51" s="192"/>
       <c r="AC51" s="193"/>
       <c r="AD51" s="194" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE51" s="192"/>
       <c r="AF51" s="192"/>
       <c r="AG51" s="192"/>
       <c r="AH51" s="193"/>
       <c r="AI51" s="194" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ51" s="158"/>
       <c r="AK51" s="158"/>
       <c r="AL51" s="158"/>
       <c r="AM51" s="195"/>
       <c r="AN51" s="194" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AO51" s="192"/>
       <c r="AP51" s="192"/>
